--- a/biodata_report.xlsx
+++ b/biodata_report.xlsx
@@ -175,7 +175,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">20241000012</t>
+      <t xml:space="preserve">20241000014</t>
     </r>
   </si>
   <si>
@@ -185,96 +185,101 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">PT. Mitra Teknologi Kreasi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kantor Antasari I</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Area Operation - Jakarta</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dept Head.Area Operation - Jakarta.Kantor Antasari I</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jakarta</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Islam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Female</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Single</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">082232329944</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Admin.satu@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2375582291000001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3375582291000001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Consultant</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TK0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">123456789</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EMP-00003</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Andy Frederick</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">PT Bintang Biru</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Kantor Antasari I</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Area Operation - Jakarta</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dept Head.Area Operation - Jakarta.Kantor Antasari I</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Jakarta</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Islam</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">O+</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Female</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Single</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">082232329944</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Admin.satu@gmail.com</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2375582291000001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3375582291000001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Consultant</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TK0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">123456789</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">EMP-00003</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Andy Frederick</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Kantor Pusat</t>
     </r>
   </si>
@@ -530,6 +535,61 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">20241000015</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Admin 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Financial Administrator</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dept Head.Financial Administrator.Kantor Pusat</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tangerang</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">087771297984</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Admin.dua@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2375582291000002</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3375582291000002</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">123456788</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">EMP-00001</t>
     </r>
   </si>
@@ -596,11 +656,6 @@
   <si>
     <r>
       <t xml:space="preserve">Christianity</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A-</t>
     </r>
   </si>
   <si>
@@ -1154,7 +1209,7 @@
         <v>37</v>
       </c>
       <c r="G3" s="4">
-        <v>45589.0</v>
+        <v>45590.0</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>38</v>
@@ -1221,16 +1276,16 @@
         <v>51</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" s="4">
         <v>44197.0</v>
@@ -1245,39 +1300,39 @@
         <v>45.0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O4" s="5" t="s"/>
       <c r="P4" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q4" s="5" t="s"/>
       <c r="R4" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S4" s="3" t="s"/>
       <c r="T4" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U4" s="3" t="s"/>
       <c r="V4" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W4" s="3" t="s"/>
       <c r="X4" s="3" t="s"/>
       <c r="Y4" s="3" t="s"/>
       <c r="Z4" s="3" t="s"/>
       <c r="AA4" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB4" s="3" t="s"/>
       <c r="AC4" s="3" t="s"/>
@@ -1286,22 +1341,22 @@
     </row>
     <row r="5" customHeight="1" ht="50">
       <c r="A5" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G5" s="4">
         <v>45575.0</v>
@@ -1316,39 +1371,39 @@
         <v>36.0</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O5" s="5" t="s"/>
       <c r="P5" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="5" t="s"/>
       <c r="R5" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S5" s="3" t="s"/>
       <c r="T5" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U5" s="3" t="s"/>
       <c r="V5" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W5" s="3" t="s"/>
       <c r="X5" s="3" t="s"/>
       <c r="Y5" s="3" t="s"/>
       <c r="Z5" s="3" t="s"/>
       <c r="AA5" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB5" s="3" t="s"/>
       <c r="AC5" s="3" t="s"/>
@@ -1357,22 +1412,22 @@
     </row>
     <row r="6" customHeight="1" ht="50">
       <c r="A6" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G6" s="4">
         <v>45575.0</v>
@@ -1387,39 +1442,39 @@
         <v>35.0</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O6" s="5" t="s"/>
       <c r="P6" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q6" s="5" t="s"/>
       <c r="R6" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S6" s="3" t="s"/>
       <c r="T6" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U6" s="3" t="s"/>
       <c r="V6" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W6" s="3" t="s"/>
       <c r="X6" s="3" t="s"/>
       <c r="Y6" s="3" t="s"/>
       <c r="Z6" s="3" t="s"/>
       <c r="AA6" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB6" s="3" t="s"/>
       <c r="AC6" s="3" t="s"/>
@@ -1428,22 +1483,22 @@
     </row>
     <row r="7" customHeight="1" ht="50">
       <c r="A7" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G7" s="4">
         <v>45575.0</v>
@@ -1458,39 +1513,39 @@
         <v>32.0</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O7" s="5" t="s"/>
       <c r="P7" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q7" s="5" t="s"/>
       <c r="R7" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S7" s="3" t="s"/>
       <c r="T7" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="U7" s="3" t="s"/>
       <c r="V7" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="W7" s="3" t="s"/>
       <c r="X7" s="3" t="s"/>
       <c r="Y7" s="3" t="s"/>
       <c r="Z7" s="3" t="s"/>
       <c r="AA7" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB7" s="3" t="s"/>
       <c r="AC7" s="3" t="s"/>
@@ -1499,22 +1554,22 @@
     </row>
     <row r="8" customHeight="1" ht="50">
       <c r="A8" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G8" s="4">
         <v>45574.0</v>
@@ -1532,25 +1587,25 @@
         <v>39</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>42</v>
       </c>
       <c r="O8" s="5" t="s"/>
       <c r="P8" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="5" t="s"/>
       <c r="R8" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S8" s="3" t="s"/>
       <c r="T8" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="U8" s="3" t="s"/>
       <c r="V8" s="3" t="s"/>
@@ -1558,10 +1613,10 @@
       <c r="X8" s="3" t="s"/>
       <c r="Y8" s="3" t="s"/>
       <c r="Z8" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB8" s="3" t="s"/>
       <c r="AC8" s="3" t="s"/>
@@ -1570,140 +1625,148 @@
     </row>
     <row r="9" customHeight="1" ht="50">
       <c r="A9" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G9" s="4">
-        <v>45575.0</v>
+        <v>45590.0</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="I9" s="4">
-        <v>31273.0</v>
+        <v>32768.0</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>39.0</v>
+        <v>35.0</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O9" s="5" t="s"/>
       <c r="P9" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q9" s="5" t="s"/>
       <c r="R9" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="S9" s="3" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="T9" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="U9" s="3" t="s"/>
-      <c r="V9" s="3" t="s">
-        <v>111</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="V9" s="3" t="s"/>
       <c r="W9" s="3" t="s"/>
       <c r="X9" s="3" t="s"/>
       <c r="Y9" s="3" t="s"/>
-      <c r="Z9" s="3" t="s"/>
+      <c r="Z9" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="AA9" s="3" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="AB9" s="3" t="s"/>
       <c r="AC9" s="3" t="s"/>
-      <c r="AD9" s="3" t="s"/>
-      <c r="AE9" s="3" t="s"/>
+      <c r="AD9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="10" customHeight="1" ht="50">
       <c r="A10" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G10" s="4">
-        <v>44197.0</v>
+        <v>45575.0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="4">
-        <v>31890.0</v>
+        <v>31273.0</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O10" s="5" t="s"/>
       <c r="P10" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q10" s="5" t="s"/>
       <c r="R10" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="S10" s="3" t="s"/>
       <c r="T10" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="U10" s="3" t="s"/>
       <c r="V10" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="W10" s="3" t="s"/>
       <c r="X10" s="3" t="s"/>
       <c r="Y10" s="3" t="s"/>
       <c r="Z10" s="3" t="s"/>
       <c r="AA10" s="3" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="AB10" s="3" t="s"/>
       <c r="AC10" s="3" t="s"/>
@@ -1712,69 +1775,69 @@
     </row>
     <row r="11" customHeight="1" ht="50">
       <c r="A11" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G11" s="4">
-        <v>45575.0</v>
+        <v>44197.0</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="4">
-        <v>34387.0</v>
+        <v>31890.0</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>30.0</v>
+        <v>37.0</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="O11" s="5" t="s"/>
       <c r="P11" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q11" s="5" t="s"/>
       <c r="R11" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="S11" s="3" t="s"/>
       <c r="T11" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="U11" s="3" t="s"/>
       <c r="V11" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="W11" s="3" t="s"/>
       <c r="X11" s="3" t="s"/>
       <c r="Y11" s="3" t="s"/>
       <c r="Z11" s="3" t="s"/>
       <c r="AA11" s="3" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="AB11" s="3" t="s"/>
       <c r="AC11" s="3" t="s"/>
@@ -1783,69 +1846,69 @@
     </row>
     <row r="12" customHeight="1" ht="50">
       <c r="A12" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G12" s="4">
-        <v>44197.0</v>
+        <v>45575.0</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="4">
-        <v>33724.0</v>
+        <v>34387.0</v>
       </c>
       <c r="J12" s="3" t="n">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="O12" s="5" t="s"/>
       <c r="P12" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q12" s="5" t="s"/>
       <c r="R12" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="S12" s="3" t="s"/>
       <c r="T12" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="U12" s="3" t="s"/>
       <c r="V12" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="W12" s="3" t="s"/>
       <c r="X12" s="3" t="s"/>
       <c r="Y12" s="3" t="s"/>
       <c r="Z12" s="3" t="s"/>
       <c r="AA12" s="3" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="AB12" s="3" t="s"/>
       <c r="AC12" s="3" t="s"/>
@@ -1854,22 +1917,22 @@
     </row>
     <row r="13" customHeight="1" ht="50">
       <c r="A13" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G13" s="4">
         <v>44197.0</v>
@@ -1878,45 +1941,45 @@
         <v>38</v>
       </c>
       <c r="I13" s="4">
-        <v>34222.0</v>
+        <v>33724.0</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="O13" s="5" t="s"/>
       <c r="P13" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="5" t="s"/>
       <c r="R13" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="S13" s="3" t="s"/>
       <c r="T13" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="U13" s="3" t="s"/>
       <c r="V13" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="W13" s="3" t="s"/>
       <c r="X13" s="3" t="s"/>
       <c r="Y13" s="3" t="s"/>
       <c r="Z13" s="3" t="s"/>
       <c r="AA13" s="3" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AB13" s="3" t="s"/>
       <c r="AC13" s="3" t="s"/>
@@ -1925,22 +1988,22 @@
     </row>
     <row r="14" customHeight="1" ht="50">
       <c r="A14" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G14" s="4">
         <v>44197.0</v>
@@ -1949,16 +2012,16 @@
         <v>38</v>
       </c>
       <c r="I14" s="4">
-        <v>34861.0</v>
+        <v>34222.0</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>41</v>
@@ -1968,64 +2031,135 @@
       </c>
       <c r="O14" s="5" t="s"/>
       <c r="P14" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="5" t="s"/>
       <c r="R14" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="S14" s="3" t="s"/>
       <c r="T14" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="U14" s="3" t="s"/>
       <c r="V14" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="W14" s="3" t="s"/>
       <c r="X14" s="3" t="s"/>
       <c r="Y14" s="3" t="s"/>
       <c r="Z14" s="3" t="s"/>
       <c r="AA14" s="3" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="AB14" s="3" t="s"/>
       <c r="AC14" s="3" t="s"/>
       <c r="AD14" s="3" t="s"/>
       <c r="AE14" s="3" t="s"/>
     </row>
-    <row r="15" customHeight="1" ht="36">
-      <c r="A15" s="6" t="s"/>
-      <c r="B15" s="6" t="s"/>
-      <c r="C15" s="6" t="s"/>
-      <c r="D15" s="6" t="s"/>
-      <c r="E15" s="6" t="s"/>
-      <c r="F15" s="6" t="s"/>
-      <c r="G15" s="6" t="s"/>
-      <c r="H15" s="6" t="s"/>
-      <c r="I15" s="6" t="s"/>
-      <c r="J15" s="6" t="s"/>
-      <c r="K15" s="6" t="s"/>
-      <c r="L15" s="6" t="s"/>
-      <c r="M15" s="6" t="s"/>
-      <c r="N15" s="6" t="s"/>
-      <c r="O15" s="6" t="s"/>
-      <c r="P15" s="6" t="s"/>
-      <c r="Q15" s="6" t="s"/>
-      <c r="R15" s="6" t="s"/>
-      <c r="S15" s="6" t="s"/>
-      <c r="T15" s="6" t="s"/>
-      <c r="U15" s="6" t="s"/>
-      <c r="V15" s="6" t="s"/>
-      <c r="W15" s="6" t="s"/>
-      <c r="X15" s="6" t="s"/>
-      <c r="Y15" s="6" t="s"/>
-      <c r="Z15" s="6" t="s"/>
-      <c r="AA15" s="6" t="s"/>
-      <c r="AB15" s="6" t="s"/>
-      <c r="AC15" s="6" t="s"/>
-      <c r="AD15" s="6" t="s"/>
-      <c r="AE15" s="6" t="s"/>
+    <row r="15" customHeight="1" ht="50">
+      <c r="A15" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="4">
+        <v>44197.0</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="4">
+        <v>34861.0</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="5" t="s"/>
+      <c r="P15" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q15" s="5" t="s"/>
+      <c r="R15" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="S15" s="3" t="s"/>
+      <c r="T15" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="U15" s="3" t="s"/>
+      <c r="V15" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="W15" s="3" t="s"/>
+      <c r="X15" s="3" t="s"/>
+      <c r="Y15" s="3" t="s"/>
+      <c r="Z15" s="3" t="s"/>
+      <c r="AA15" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB15" s="3" t="s"/>
+      <c r="AC15" s="3" t="s"/>
+      <c r="AD15" s="3" t="s"/>
+      <c r="AE15" s="3" t="s"/>
+    </row>
+    <row r="16" customHeight="1" ht="36">
+      <c r="A16" s="6" t="s"/>
+      <c r="B16" s="6" t="s"/>
+      <c r="C16" s="6" t="s"/>
+      <c r="D16" s="6" t="s"/>
+      <c r="E16" s="6" t="s"/>
+      <c r="F16" s="6" t="s"/>
+      <c r="G16" s="6" t="s"/>
+      <c r="H16" s="6" t="s"/>
+      <c r="I16" s="6" t="s"/>
+      <c r="J16" s="6" t="s"/>
+      <c r="K16" s="6" t="s"/>
+      <c r="L16" s="6" t="s"/>
+      <c r="M16" s="6" t="s"/>
+      <c r="N16" s="6" t="s"/>
+      <c r="O16" s="6" t="s"/>
+      <c r="P16" s="6" t="s"/>
+      <c r="Q16" s="6" t="s"/>
+      <c r="R16" s="6" t="s"/>
+      <c r="S16" s="6" t="s"/>
+      <c r="T16" s="6" t="s"/>
+      <c r="U16" s="6" t="s"/>
+      <c r="V16" s="6" t="s"/>
+      <c r="W16" s="6" t="s"/>
+      <c r="X16" s="6" t="s"/>
+      <c r="Y16" s="6" t="s"/>
+      <c r="Z16" s="6" t="s"/>
+      <c r="AA16" s="6" t="s"/>
+      <c r="AB16" s="6" t="s"/>
+      <c r="AC16" s="6" t="s"/>
+      <c r="AD16" s="6" t="s"/>
+      <c r="AE16" s="6" t="s"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/biodata_report.xlsx
+++ b/biodata_report.xlsx
@@ -175,7 +175,92 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">20241000014</t>
+      <t xml:space="preserve">20241000021</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jane Smith Doe</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PT. Mitra Teknologi Kreasi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kantor Antasari I</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Area Operation - Jakarta</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dept Head.Area Operation - Jakarta.Kantor Antasari I</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jakarta</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Islam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Female</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Single</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">082232329944</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Admin.satu@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2375582291000001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3375582291000001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Consultant</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TK0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">123456789</t>
     </r>
   </si>
   <si>
@@ -185,86 +270,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">PT. Mitra Teknologi Kreasi</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kantor Antasari I</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Area Operation - Jakarta</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dept Head.Area Operation - Jakarta.Kantor Antasari I</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Jakarta</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Islam</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">O+</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Female</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Single</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">082232329944</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Admin.satu@gmail.com</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2375582291000001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3375582291000001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Consultant</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TK0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">123456789</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">EMP-00003</t>
     </r>
   </si>
@@ -535,127 +540,77 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">20241000015</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Admin 2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Financial Administrator</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dept Head.Financial Administrator.Kantor Pusat</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tangerang</t>
+      <t xml:space="preserve">EMP-00001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Marco Keith</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Human Resource Directorate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Head.Human Resource Directorate.Kantor Pusat</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Buddhism</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">081345247862</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">user4@oneindonesia.id</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2121428562543920</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">215826354862965</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EMP-00002</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Peter Johnson</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CEO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Director.CEO.Kantor Pusat</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Christianity</t>
     </r>
   </si>
   <si>
     <r>
       <t xml:space="preserve">A-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">087771297984</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Admin.dua@gmail.com</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2375582291000002</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3375582291000002</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">123456788</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">EMP-00001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Marco Keith</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Human Resource Directorate</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Head.Human Resource Directorate.Kantor Pusat</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Buddhism</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">081345247862</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">user4@oneindonesia.id</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2121428562543920</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">215826354862965</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">EMP-00002</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Peter Johnson</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CEO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Director.CEO.Kantor Pusat</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Christianity</t>
     </r>
   </si>
   <si>
@@ -1209,7 +1164,7 @@
         <v>37</v>
       </c>
       <c r="G3" s="4">
-        <v>45590.0</v>
+        <v>45592.0</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>38</v>
@@ -1265,27 +1220,27 @@
         <v>49</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" customHeight="1" ht="50">
       <c r="A4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G4" s="4">
         <v>44197.0</v>
@@ -1300,39 +1255,39 @@
         <v>45.0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O4" s="5" t="s"/>
       <c r="P4" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q4" s="5" t="s"/>
       <c r="R4" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S4" s="3" t="s"/>
       <c r="T4" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U4" s="3" t="s"/>
       <c r="V4" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W4" s="3" t="s"/>
       <c r="X4" s="3" t="s"/>
       <c r="Y4" s="3" t="s"/>
       <c r="Z4" s="3" t="s"/>
       <c r="AA4" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB4" s="3" t="s"/>
       <c r="AC4" s="3" t="s"/>
@@ -1341,22 +1296,22 @@
     </row>
     <row r="5" customHeight="1" ht="50">
       <c r="A5" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G5" s="4">
         <v>45575.0</v>
@@ -1371,39 +1326,39 @@
         <v>36.0</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O5" s="5" t="s"/>
       <c r="P5" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="5" t="s"/>
       <c r="R5" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S5" s="3" t="s"/>
       <c r="T5" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U5" s="3" t="s"/>
       <c r="V5" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W5" s="3" t="s"/>
       <c r="X5" s="3" t="s"/>
       <c r="Y5" s="3" t="s"/>
       <c r="Z5" s="3" t="s"/>
       <c r="AA5" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB5" s="3" t="s"/>
       <c r="AC5" s="3" t="s"/>
@@ -1412,22 +1367,22 @@
     </row>
     <row r="6" customHeight="1" ht="50">
       <c r="A6" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G6" s="4">
         <v>45575.0</v>
@@ -1442,39 +1397,39 @@
         <v>35.0</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O6" s="5" t="s"/>
       <c r="P6" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q6" s="5" t="s"/>
       <c r="R6" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S6" s="3" t="s"/>
       <c r="T6" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U6" s="3" t="s"/>
       <c r="V6" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W6" s="3" t="s"/>
       <c r="X6" s="3" t="s"/>
       <c r="Y6" s="3" t="s"/>
       <c r="Z6" s="3" t="s"/>
       <c r="AA6" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB6" s="3" t="s"/>
       <c r="AC6" s="3" t="s"/>
@@ -1483,22 +1438,22 @@
     </row>
     <row r="7" customHeight="1" ht="50">
       <c r="A7" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G7" s="4">
         <v>45575.0</v>
@@ -1513,39 +1468,39 @@
         <v>32.0</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O7" s="5" t="s"/>
       <c r="P7" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q7" s="5" t="s"/>
       <c r="R7" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S7" s="3" t="s"/>
       <c r="T7" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="U7" s="3" t="s"/>
       <c r="V7" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="W7" s="3" t="s"/>
       <c r="X7" s="3" t="s"/>
       <c r="Y7" s="3" t="s"/>
       <c r="Z7" s="3" t="s"/>
       <c r="AA7" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB7" s="3" t="s"/>
       <c r="AC7" s="3" t="s"/>
@@ -1554,22 +1509,22 @@
     </row>
     <row r="8" customHeight="1" ht="50">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G8" s="4">
         <v>45574.0</v>
@@ -1587,25 +1542,25 @@
         <v>39</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>42</v>
       </c>
       <c r="O8" s="5" t="s"/>
       <c r="P8" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q8" s="5" t="s"/>
       <c r="R8" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S8" s="3" t="s"/>
       <c r="T8" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U8" s="3" t="s"/>
       <c r="V8" s="3" t="s"/>
@@ -1613,10 +1568,10 @@
       <c r="X8" s="3" t="s"/>
       <c r="Y8" s="3" t="s"/>
       <c r="Z8" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB8" s="3" t="s"/>
       <c r="AC8" s="3" t="s"/>
@@ -1625,46 +1580,46 @@
     </row>
     <row r="9" customHeight="1" ht="50">
       <c r="A9" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G9" s="4">
-        <v>45590.0</v>
+        <v>45575.0</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="I9" s="4">
-        <v>32768.0</v>
+        <v>31273.0</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>35.0</v>
+        <v>39.0</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O9" s="5" t="s"/>
       <c r="P9" s="5" t="s">
@@ -1674,76 +1629,68 @@
       <c r="R9" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="S9" s="3" t="s"/>
       <c r="T9" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="U9" s="3" t="s"/>
+      <c r="V9" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="V9" s="3" t="s"/>
       <c r="W9" s="3" t="s"/>
       <c r="X9" s="3" t="s"/>
       <c r="Y9" s="3" t="s"/>
-      <c r="Z9" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="Z9" s="3" t="s"/>
       <c r="AA9" s="3" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="AB9" s="3" t="s"/>
       <c r="AC9" s="3" t="s"/>
-      <c r="AD9" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE9" s="3" t="s">
-        <v>105</v>
-      </c>
+      <c r="AD9" s="3" t="s"/>
+      <c r="AE9" s="3" t="s"/>
     </row>
     <row r="10" customHeight="1" ht="50">
       <c r="A10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="G10" s="4">
-        <v>45575.0</v>
+        <v>44197.0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="4">
-        <v>31273.0</v>
+        <v>31890.0</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
       <c r="K10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="M10" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O10" s="5" t="s"/>
       <c r="P10" s="5" t="s">
@@ -1766,7 +1713,7 @@
       <c r="Y10" s="3" t="s"/>
       <c r="Z10" s="3" t="s"/>
       <c r="AA10" s="3" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="AB10" s="3" t="s"/>
       <c r="AC10" s="3" t="s"/>
@@ -1775,46 +1722,46 @@
     </row>
     <row r="11" customHeight="1" ht="50">
       <c r="A11" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G11" s="4">
-        <v>44197.0</v>
+        <v>45575.0</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="4">
-        <v>31890.0</v>
+        <v>34387.0</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>37.0</v>
+        <v>30.0</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="O11" s="5" t="s"/>
       <c r="P11" s="5" t="s">
@@ -1837,7 +1784,7 @@
       <c r="Y11" s="3" t="s"/>
       <c r="Z11" s="3" t="s"/>
       <c r="AA11" s="3" t="s">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="AB11" s="3" t="s"/>
       <c r="AC11" s="3" t="s"/>
@@ -1846,46 +1793,46 @@
     </row>
     <row r="12" customHeight="1" ht="50">
       <c r="A12" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="G12" s="4">
-        <v>45575.0</v>
+        <v>44197.0</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="4">
-        <v>34387.0</v>
+        <v>33724.0</v>
       </c>
       <c r="J12" s="3" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="O12" s="5" t="s"/>
       <c r="P12" s="5" t="s">
@@ -1908,7 +1855,7 @@
       <c r="Y12" s="3" t="s"/>
       <c r="Z12" s="3" t="s"/>
       <c r="AA12" s="3" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="AB12" s="3" t="s"/>
       <c r="AC12" s="3" t="s"/>
@@ -1923,10 +1870,10 @@
         <v>143</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>144</v>
@@ -1941,13 +1888,13 @@
         <v>38</v>
       </c>
       <c r="I13" s="4">
-        <v>33724.0</v>
+        <v>34222.0</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>146</v>
@@ -1956,7 +1903,7 @@
         <v>41</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="O13" s="5" t="s"/>
       <c r="P13" s="5" t="s">
@@ -1979,7 +1926,7 @@
       <c r="Y13" s="3" t="s"/>
       <c r="Z13" s="3" t="s"/>
       <c r="AA13" s="3" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="AB13" s="3" t="s"/>
       <c r="AC13" s="3" t="s"/>
@@ -1994,10 +1941,10 @@
         <v>152</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>153</v>
@@ -2012,16 +1959,16 @@
         <v>38</v>
       </c>
       <c r="I14" s="4">
-        <v>34222.0</v>
+        <v>34861.0</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>41</v>
@@ -2031,135 +1978,64 @@
       </c>
       <c r="O14" s="5" t="s"/>
       <c r="P14" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="5" t="s"/>
       <c r="R14" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S14" s="3" t="s"/>
       <c r="T14" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U14" s="3" t="s"/>
       <c r="V14" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W14" s="3" t="s"/>
       <c r="X14" s="3" t="s"/>
       <c r="Y14" s="3" t="s"/>
       <c r="Z14" s="3" t="s"/>
       <c r="AA14" s="3" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="AB14" s="3" t="s"/>
       <c r="AC14" s="3" t="s"/>
       <c r="AD14" s="3" t="s"/>
       <c r="AE14" s="3" t="s"/>
     </row>
-    <row r="15" customHeight="1" ht="50">
-      <c r="A15" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G15" s="4">
-        <v>44197.0</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="4">
-        <v>34861.0</v>
-      </c>
-      <c r="J15" s="3" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O15" s="5" t="s"/>
-      <c r="P15" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q15" s="5" t="s"/>
-      <c r="R15" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="S15" s="3" t="s"/>
-      <c r="T15" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="U15" s="3" t="s"/>
-      <c r="V15" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="W15" s="3" t="s"/>
-      <c r="X15" s="3" t="s"/>
-      <c r="Y15" s="3" t="s"/>
-      <c r="Z15" s="3" t="s"/>
-      <c r="AA15" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB15" s="3" t="s"/>
-      <c r="AC15" s="3" t="s"/>
-      <c r="AD15" s="3" t="s"/>
-      <c r="AE15" s="3" t="s"/>
-    </row>
-    <row r="16" customHeight="1" ht="36">
-      <c r="A16" s="6" t="s"/>
-      <c r="B16" s="6" t="s"/>
-      <c r="C16" s="6" t="s"/>
-      <c r="D16" s="6" t="s"/>
-      <c r="E16" s="6" t="s"/>
-      <c r="F16" s="6" t="s"/>
-      <c r="G16" s="6" t="s"/>
-      <c r="H16" s="6" t="s"/>
-      <c r="I16" s="6" t="s"/>
-      <c r="J16" s="6" t="s"/>
-      <c r="K16" s="6" t="s"/>
-      <c r="L16" s="6" t="s"/>
-      <c r="M16" s="6" t="s"/>
-      <c r="N16" s="6" t="s"/>
-      <c r="O16" s="6" t="s"/>
-      <c r="P16" s="6" t="s"/>
-      <c r="Q16" s="6" t="s"/>
-      <c r="R16" s="6" t="s"/>
-      <c r="S16" s="6" t="s"/>
-      <c r="T16" s="6" t="s"/>
-      <c r="U16" s="6" t="s"/>
-      <c r="V16" s="6" t="s"/>
-      <c r="W16" s="6" t="s"/>
-      <c r="X16" s="6" t="s"/>
-      <c r="Y16" s="6" t="s"/>
-      <c r="Z16" s="6" t="s"/>
-      <c r="AA16" s="6" t="s"/>
-      <c r="AB16" s="6" t="s"/>
-      <c r="AC16" s="6" t="s"/>
-      <c r="AD16" s="6" t="s"/>
-      <c r="AE16" s="6" t="s"/>
+    <row r="15" customHeight="1" ht="36">
+      <c r="A15" s="6" t="s"/>
+      <c r="B15" s="6" t="s"/>
+      <c r="C15" s="6" t="s"/>
+      <c r="D15" s="6" t="s"/>
+      <c r="E15" s="6" t="s"/>
+      <c r="F15" s="6" t="s"/>
+      <c r="G15" s="6" t="s"/>
+      <c r="H15" s="6" t="s"/>
+      <c r="I15" s="6" t="s"/>
+      <c r="J15" s="6" t="s"/>
+      <c r="K15" s="6" t="s"/>
+      <c r="L15" s="6" t="s"/>
+      <c r="M15" s="6" t="s"/>
+      <c r="N15" s="6" t="s"/>
+      <c r="O15" s="6" t="s"/>
+      <c r="P15" s="6" t="s"/>
+      <c r="Q15" s="6" t="s"/>
+      <c r="R15" s="6" t="s"/>
+      <c r="S15" s="6" t="s"/>
+      <c r="T15" s="6" t="s"/>
+      <c r="U15" s="6" t="s"/>
+      <c r="V15" s="6" t="s"/>
+      <c r="W15" s="6" t="s"/>
+      <c r="X15" s="6" t="s"/>
+      <c r="Y15" s="6" t="s"/>
+      <c r="Z15" s="6" t="s"/>
+      <c r="AA15" s="6" t="s"/>
+      <c r="AB15" s="6" t="s"/>
+      <c r="AC15" s="6" t="s"/>
+      <c r="AD15" s="6" t="s"/>
+      <c r="AE15" s="6" t="s"/>
     </row>
   </sheetData>
   <mergeCells>
